--- a/new_real_data_safe.xlsx
+++ b/new_real_data_safe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasuma\Desktop\骨髄バンクDB様用\安全情報一元化データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\donor_safety\donor_safety-ver6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,10 +449,6 @@
   </si>
   <si>
     <t>ドナー後腹膜血腫形成事例の再発防止策について</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドナー後腹膜血腫形成事例の調査報告と対応策について</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9353,6 +9349,10 @@
     <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>µドナー後腹膜血腫形成事例の調査報告と対応策について</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10038,10 +10038,10 @@
   </sheetPr>
   <dimension ref="A4:U154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10074,40 +10074,40 @@
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>801</v>
-      </c>
       <c r="M4" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>817</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>818</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>35</v>
@@ -10128,7 +10128,7 @@
         <v>44</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
@@ -10136,10 +10136,10 @@
         <v>20010711</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>821</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -10147,17 +10147,17 @@
         <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
@@ -10182,10 +10182,10 @@
         <v>20020904</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -10197,7 +10197,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
@@ -10205,10 +10205,10 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="S6" s="5">
         <v>37503</v>
@@ -10222,10 +10222,10 @@
         <v>20021016</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10237,7 +10237,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
@@ -10245,10 +10245,10 @@
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="S7" s="5">
         <v>37545</v>
@@ -10262,10 +10262,10 @@
         <v>20030203</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -10277,7 +10277,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
@@ -10285,10 +10285,10 @@
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="S8" s="5">
         <v>37655</v>
@@ -10302,30 +10302,30 @@
         <v>20030325</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
@@ -10333,10 +10333,10 @@
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="S9" s="5">
         <v>37705</v>
@@ -10350,10 +10350,10 @@
         <v>20030813</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -10365,18 +10365,18 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="S10" s="5">
         <v>37846</v>
@@ -10387,16 +10387,16 @@
     </row>
     <row r="11" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C11" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -10406,18 +10406,18 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S11" s="5">
         <v>37851</v>
@@ -10428,44 +10428,44 @@
     </row>
     <row r="12" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" s="5">
         <v>37852</v>
@@ -10476,37 +10476,37 @@
     </row>
     <row r="13" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="F13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="S13" s="5">
         <v>37852</v>
@@ -10517,37 +10517,37 @@
     </row>
     <row r="14" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="F14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" s="5">
         <v>37852</v>
@@ -10556,42 +10556,42 @@
         <v>37852</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S15" s="5">
         <v>37852</v>
@@ -10600,21 +10600,21 @@
         <v>37852</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -10624,18 +10624,18 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="S16" s="5">
         <v>39098</v>
@@ -10646,44 +10646,44 @@
     </row>
     <row r="17" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>426</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S17" s="5">
         <v>39924</v>
@@ -10694,13 +10694,13 @@
     </row>
     <row r="18" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10712,18 +10712,18 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="S18" s="5">
         <v>40121</v>
@@ -10734,13 +10734,13 @@
     </row>
     <row r="19" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10752,18 +10752,18 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="S19" s="5">
         <v>40242</v>
@@ -10774,13 +10774,13 @@
     </row>
     <row r="20" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -10792,18 +10792,18 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S20" s="5">
         <v>40648</v>
@@ -10814,13 +10814,13 @@
     </row>
     <row r="21" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -10832,18 +10832,18 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S21" s="5">
         <v>42096</v>
@@ -10854,13 +10854,13 @@
     </row>
     <row r="22" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -10872,18 +10872,18 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S22" s="5">
         <v>42618</v>
@@ -10894,16 +10894,16 @@
     </row>
     <row r="23" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -10913,18 +10913,18 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S23" s="5">
         <v>42699</v>
@@ -10933,21 +10933,21 @@
         <v>42699</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -10957,18 +10957,18 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S24" s="5">
         <v>42821</v>
@@ -10979,37 +10979,37 @@
     </row>
     <row r="25" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C25" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="F25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S25" s="5">
         <v>42941</v>
@@ -11020,40 +11020,40 @@
     </row>
     <row r="26" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="14"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S26" s="5">
         <v>42965</v>
@@ -11064,13 +11064,13 @@
     </row>
     <row r="27" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -11082,18 +11082,18 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S27" s="5">
         <v>43194</v>
@@ -11102,18 +11102,18 @@
         <v>43194</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -11129,14 +11129,14 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S28" s="5">
         <v>37043</v>
@@ -11147,13 +11147,13 @@
     </row>
     <row r="29" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -11169,14 +11169,14 @@
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S29" s="5">
         <v>37063</v>
@@ -11187,13 +11187,13 @@
     </row>
     <row r="30" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -11209,14 +11209,14 @@
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S30" s="5">
         <v>37139</v>
@@ -11227,13 +11227,13 @@
     </row>
     <row r="31" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -11249,14 +11249,14 @@
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S31" s="5">
         <v>37267</v>
@@ -11267,13 +11267,13 @@
     </row>
     <row r="32" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -11289,14 +11289,14 @@
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="S32" s="5">
         <v>37454</v>
@@ -11307,13 +11307,13 @@
     </row>
     <row r="33" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -11333,10 +11333,10 @@
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S33" s="5">
         <v>37518</v>
@@ -11347,13 +11347,13 @@
     </row>
     <row r="34" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -11369,14 +11369,14 @@
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R34" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S34" s="5">
         <v>37544</v>
@@ -11387,13 +11387,13 @@
     </row>
     <row r="35" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -11409,14 +11409,14 @@
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R35" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S35" s="5">
         <v>37705</v>
@@ -11427,16 +11427,16 @@
     </row>
     <row r="36" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -11450,14 +11450,14 @@
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S36" s="5">
         <v>37915</v>
@@ -11468,13 +11468,13 @@
     </row>
     <row r="37" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -11490,14 +11490,14 @@
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S37" s="5">
         <v>38007</v>
@@ -11508,16 +11508,16 @@
     </row>
     <row r="38" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -11531,14 +11531,14 @@
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="R38" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="S38" s="5">
         <v>38007</v>
@@ -11549,13 +11549,13 @@
     </row>
     <row r="39" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -11571,14 +11571,14 @@
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S39" s="5">
         <v>38013</v>
@@ -11589,41 +11589,41 @@
     </row>
     <row r="40" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="F40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R40" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="R40" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="S40" s="5">
         <v>38013</v>
@@ -11634,41 +11634,41 @@
     </row>
     <row r="41" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>2</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S41" s="5">
         <v>38013</v>
@@ -11677,21 +11677,21 @@
         <v>38013</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C42" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -11705,14 +11705,14 @@
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S42" s="5">
         <v>38041</v>
@@ -11723,16 +11723,16 @@
     </row>
     <row r="43" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C43" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -11746,14 +11746,14 @@
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S43" s="5">
         <v>38275</v>
@@ -11764,13 +11764,13 @@
     </row>
     <row r="44" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -11786,14 +11786,14 @@
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S44" s="5">
         <v>38313</v>
@@ -11804,13 +11804,13 @@
     </row>
     <row r="45" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -11826,11 +11826,11 @@
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>45</v>
@@ -11844,13 +11844,13 @@
     </row>
     <row r="46" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -11866,14 +11866,14 @@
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R46" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S46" s="5">
         <v>38588</v>
@@ -11884,13 +11884,13 @@
     </row>
     <row r="47" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -11906,14 +11906,14 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S47" s="5">
         <v>38663</v>
@@ -11924,13 +11924,13 @@
     </row>
     <row r="48" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -11946,14 +11946,14 @@
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S48" s="5">
         <v>38663</v>
@@ -11964,13 +11964,13 @@
     </row>
     <row r="49" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -11982,18 +11982,18 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S49" s="5">
         <v>38825</v>
@@ -12004,16 +12004,16 @@
     </row>
     <row r="50" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -12023,18 +12023,18 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S50" s="5">
         <v>38919</v>
@@ -12045,16 +12045,16 @@
     </row>
     <row r="51" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -12064,18 +12064,18 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S51" s="5">
         <v>39282</v>
@@ -12086,13 +12086,13 @@
     </row>
     <row r="52" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -12104,18 +12104,18 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="S52" s="5">
         <v>39282</v>
@@ -12126,46 +12126,46 @@
     </row>
     <row r="53" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>498</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S53" s="5">
         <v>39930</v>
@@ -12176,44 +12176,44 @@
     </row>
     <row r="54" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P54" s="4"/>
       <c r="Q54" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S54" s="5">
         <v>40171</v>
@@ -12224,40 +12224,40 @@
     </row>
     <row r="55" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="14"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P55" s="4"/>
       <c r="Q55" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S55" s="5">
         <v>40171</v>
@@ -12268,21 +12268,21 @@
     </row>
     <row r="56" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -12290,18 +12290,18 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P56" s="4"/>
       <c r="Q56" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="R56" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="S56" s="5">
         <v>40374</v>
@@ -12312,13 +12312,13 @@
     </row>
     <row r="57" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -12330,18 +12330,18 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P57" s="4"/>
       <c r="Q57" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="R57" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="R57" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="S57" s="5">
         <v>40750</v>
@@ -12352,16 +12352,16 @@
     </row>
     <row r="58" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C58" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>512</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -12371,18 +12371,18 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P58" s="4"/>
       <c r="Q58" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="R58" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="S58" s="5">
         <v>40770</v>
@@ -12393,13 +12393,13 @@
     </row>
     <row r="59" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -12411,18 +12411,18 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P59" s="4"/>
       <c r="Q59" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S59" s="5">
         <v>40830</v>
@@ -12433,21 +12433,21 @@
     </row>
     <row r="60" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -12455,18 +12455,18 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="R60" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="S60" s="5">
         <v>41170</v>
@@ -12477,21 +12477,21 @@
     </row>
     <row r="61" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -12499,18 +12499,18 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N61" s="4"/>
       <c r="O61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P61" s="4"/>
       <c r="Q61" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R61" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="R61" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="S61" s="5">
         <v>41744</v>
@@ -12521,16 +12521,16 @@
     </row>
     <row r="62" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="C62" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -12540,18 +12540,18 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N62" s="4"/>
       <c r="O62" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P62" s="4"/>
       <c r="Q62" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S62" s="5">
         <v>42265</v>
@@ -12562,16 +12562,16 @@
     </row>
     <row r="63" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -12581,18 +12581,18 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P63" s="4"/>
       <c r="Q63" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="R63" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="R63" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="S63" s="5">
         <v>42475</v>
@@ -12603,21 +12603,21 @@
     </row>
     <row r="64" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -12625,16 +12625,16 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S64" s="5">
         <v>42689</v>
@@ -12645,13 +12645,13 @@
     </row>
     <row r="65" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C65" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -12663,18 +12663,18 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S65" s="5">
         <v>42719</v>
@@ -12685,16 +12685,16 @@
     </row>
     <row r="66" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="C66" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -12704,18 +12704,18 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N66" s="4"/>
       <c r="O66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P66" s="4"/>
       <c r="Q66" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S66" s="5">
         <v>42835</v>
@@ -12726,42 +12726,42 @@
     </row>
     <row r="67" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="C67" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P67" s="4"/>
       <c r="Q67" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S67" s="5">
         <v>42930</v>
@@ -12772,13 +12772,13 @@
     </row>
     <row r="68" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -12790,18 +12790,18 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N68" s="4"/>
       <c r="O68" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P68" s="4"/>
       <c r="Q68" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S68" s="5">
         <v>43054</v>
@@ -12812,16 +12812,16 @@
     </row>
     <row r="69" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -12831,18 +12831,18 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N69" s="4"/>
       <c r="O69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P69" s="4"/>
       <c r="Q69" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S69" s="5">
         <v>43084</v>
@@ -12853,16 +12853,16 @@
     </row>
     <row r="70" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>539</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -12872,16 +12872,16 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S70" s="5">
         <v>43084</v>
@@ -12892,43 +12892,43 @@
     </row>
     <row r="71" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="J71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P71" s="4"/>
       <c r="Q71" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S71" s="5">
         <v>43115</v>
@@ -12939,21 +12939,21 @@
     </row>
     <row r="72" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -12961,18 +12961,18 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P72" s="4"/>
       <c r="Q72" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S72" s="5">
         <v>43115</v>
@@ -12983,42 +12983,42 @@
     </row>
     <row r="73" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G73" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="H73" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N73" s="4"/>
       <c r="O73" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P73" s="4"/>
       <c r="Q73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S73" s="5">
         <v>43203</v>
@@ -13029,21 +13029,21 @@
     </row>
     <row r="74" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -13051,18 +13051,18 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S74" s="5">
         <v>43235</v>
@@ -13073,13 +13073,13 @@
     </row>
     <row r="75" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -13091,18 +13091,18 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N75" s="4"/>
       <c r="O75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P75" s="4"/>
       <c r="Q75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S75" s="5">
         <v>43235</v>
@@ -13113,21 +13113,21 @@
     </row>
     <row r="76" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="C76" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -13135,18 +13135,18 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P76" s="4"/>
       <c r="Q76" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S76" s="5">
         <v>43293</v>
@@ -13155,18 +13155,18 @@
         <v>43293</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -13178,18 +13178,18 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S77" s="5">
         <v>43357</v>
@@ -13200,16 +13200,16 @@
     </row>
     <row r="78" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -13219,18 +13219,18 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S78" s="5">
         <v>43357</v>
@@ -13241,16 +13241,16 @@
     </row>
     <row r="79" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>558</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -13260,18 +13260,18 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P79" s="4"/>
       <c r="Q79" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S79" s="5">
         <v>43448</v>
@@ -13282,44 +13282,44 @@
     </row>
     <row r="80" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S80" s="5">
         <v>43448</v>
@@ -13330,16 +13330,16 @@
     </row>
     <row r="81" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -13349,18 +13349,18 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P81" s="4"/>
       <c r="Q81" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S81" s="5">
         <v>43448</v>
@@ -13371,13 +13371,13 @@
     </row>
     <row r="82" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A82" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -13389,18 +13389,18 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R82" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="R82" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="S82" s="5">
         <v>43572</v>
@@ -13409,18 +13409,18 @@
         <v>43572</v>
       </c>
       <c r="U82" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A83" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -13432,18 +13432,18 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S83" s="5">
         <v>43658</v>
@@ -13454,13 +13454,13 @@
     </row>
     <row r="84" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A84" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -13472,18 +13472,18 @@
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P84" s="4"/>
       <c r="Q84" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S84" s="5">
         <v>43692</v>
@@ -13494,13 +13494,13 @@
     </row>
     <row r="85" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A85" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -13512,18 +13512,18 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N85" s="4"/>
       <c r="O85" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S85" s="5">
         <v>43812</v>
@@ -13534,21 +13534,21 @@
     </row>
     <row r="86" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A86" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -13556,18 +13556,18 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N86" s="4"/>
       <c r="O86" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P86" s="4"/>
       <c r="Q86" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S86" s="5">
         <v>43903</v>
@@ -13578,21 +13578,21 @@
     </row>
     <row r="87" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A87" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -13600,18 +13600,18 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N87" s="4"/>
       <c r="O87" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P87" s="4"/>
       <c r="Q87" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S87" s="5">
         <v>43903</v>
@@ -13622,16 +13622,16 @@
     </row>
     <row r="88" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A88" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="C88" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -13641,18 +13641,18 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P88" s="4"/>
       <c r="Q88" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S88" s="5">
         <v>43936</v>
@@ -13661,18 +13661,18 @@
         <v>43936</v>
       </c>
       <c r="U88" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A89" s="7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -13684,18 +13684,18 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N89" s="4"/>
       <c r="O89" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P89" s="4"/>
       <c r="Q89" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S89" s="5">
         <v>44119</v>
@@ -13706,13 +13706,13 @@
     </row>
     <row r="90" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A90" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -13724,18 +13724,18 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N90" s="4"/>
       <c r="O90" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P90" s="4"/>
       <c r="Q90" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S90" s="5">
         <v>44119</v>
@@ -13746,13 +13746,13 @@
     </row>
     <row r="91" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -13764,18 +13764,18 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N91" s="4"/>
       <c r="O91" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P91" s="4"/>
       <c r="Q91" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S91" s="5">
         <v>44200</v>
@@ -13786,13 +13786,13 @@
     </row>
     <row r="92" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A92" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -13804,18 +13804,18 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N92" s="4"/>
       <c r="O92" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P92" s="4"/>
       <c r="Q92" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R92" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R92" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S92" s="5">
         <v>38391</v>
@@ -13826,21 +13826,21 @@
     </row>
     <row r="93" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A93" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -13848,18 +13848,18 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P93" s="4"/>
       <c r="Q93" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R93" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R93" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S93" s="5">
         <v>38391</v>
@@ -13870,13 +13870,13 @@
     </row>
     <row r="94" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A94" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
@@ -13888,18 +13888,18 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N94" s="4"/>
       <c r="O94" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P94" s="4"/>
       <c r="Q94" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S94" s="5">
         <v>38391</v>
@@ -13908,18 +13908,18 @@
         <v>38391</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
@@ -13931,18 +13931,18 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N95" s="4"/>
       <c r="O95" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P95" s="4"/>
       <c r="Q95" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S95" s="5">
         <v>38391</v>
@@ -13951,18 +13951,18 @@
         <v>38391</v>
       </c>
       <c r="U95" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A96" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
@@ -13974,18 +13974,18 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N96" s="4"/>
       <c r="O96" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P96" s="4"/>
       <c r="Q96" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S96" s="5">
         <v>38391</v>
@@ -13994,18 +13994,18 @@
         <v>38391</v>
       </c>
       <c r="U96" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A97" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
@@ -14017,18 +14017,18 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P97" s="4"/>
       <c r="Q97" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S97" s="5">
         <v>38391</v>
@@ -14037,18 +14037,18 @@
         <v>38391</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -14060,18 +14060,18 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N98" s="4"/>
       <c r="O98" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P98" s="4"/>
       <c r="Q98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R98" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R98" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S98" s="5">
         <v>38462</v>
@@ -14082,21 +14082,21 @@
     </row>
     <row r="99" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A99" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>588</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -14104,18 +14104,18 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N99" s="4"/>
       <c r="O99" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P99" s="4"/>
       <c r="Q99" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S99" s="5">
         <v>38462</v>
@@ -14126,13 +14126,13 @@
     </row>
     <row r="100" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A100" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -14144,18 +14144,18 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N100" s="4"/>
       <c r="O100" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P100" s="4"/>
       <c r="Q100" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R100" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R100" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S100" s="5">
         <v>38462</v>
@@ -14166,16 +14166,16 @@
     </row>
     <row r="101" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A101" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -14185,18 +14185,18 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N101" s="4"/>
       <c r="O101" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P101" s="4"/>
       <c r="Q101" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S101" s="5">
         <v>38462</v>
@@ -14207,13 +14207,13 @@
     </row>
     <row r="102" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A102" s="7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -14225,18 +14225,18 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N102" s="4"/>
       <c r="O102" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P102" s="4"/>
       <c r="Q102" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R102" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R102" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S102" s="5">
         <v>38462</v>
@@ -14247,13 +14247,13 @@
     </row>
     <row r="103" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A103" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -14265,18 +14265,18 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P103" s="4"/>
       <c r="Q103" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R103" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="R103" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="S103" s="5">
         <v>38597</v>
@@ -14287,13 +14287,13 @@
     </row>
     <row r="104" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A104" s="7" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -14305,18 +14305,18 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N104" s="4"/>
       <c r="O104" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P104" s="4"/>
       <c r="Q104" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R104" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="R104" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="S104" s="5">
         <v>38919</v>
@@ -14327,13 +14327,13 @@
     </row>
     <row r="105" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A105" s="7" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -14345,18 +14345,18 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P105" s="4"/>
       <c r="Q105" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R105" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="R105" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="S105" s="5">
         <v>38919</v>
@@ -14367,13 +14367,13 @@
     </row>
     <row r="106" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A106" s="7" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -14385,18 +14385,18 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P106" s="4"/>
       <c r="Q106" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R106" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="R106" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="S106" s="5">
         <v>38960</v>
@@ -14407,13 +14407,13 @@
     </row>
     <row r="107" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A107" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -14429,10 +14429,10 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R107" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S107" s="5">
         <v>38960</v>
@@ -14441,18 +14441,18 @@
         <v>38960</v>
       </c>
       <c r="U107" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A108" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -14468,10 +14468,10 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S108" s="5">
         <v>38960</v>
@@ -14480,21 +14480,21 @@
         <v>38960</v>
       </c>
       <c r="U108" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A109" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B109" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>601</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>602</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -14504,18 +14504,18 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P109" s="4"/>
       <c r="Q109" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R109" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="R109" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="S109" s="5">
         <v>39069</v>
@@ -14526,44 +14526,44 @@
     </row>
     <row r="110" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A110" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="C110" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P110" s="4"/>
       <c r="Q110" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S110" s="5">
         <v>39588</v>
@@ -14574,13 +14574,13 @@
     </row>
     <row r="111" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A111" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="C111" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -14592,18 +14592,18 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P111" s="4"/>
       <c r="Q111" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S111" s="5">
         <v>39891</v>
@@ -14614,42 +14614,42 @@
     </row>
     <row r="112" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A112" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H112" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="I112" s="10"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P112" s="4"/>
       <c r="Q112" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="R112" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="R112" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="S112" s="5">
         <v>43570</v>
@@ -14658,26 +14658,26 @@
         <v>43570</v>
       </c>
       <c r="U112" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A113" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
@@ -14685,18 +14685,18 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P113" s="4"/>
       <c r="Q113" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S113" s="5">
         <v>43570</v>
@@ -14705,18 +14705,18 @@
         <v>43570</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A114" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -14728,18 +14728,18 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P114" s="4"/>
       <c r="Q114" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R114" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S114" s="5">
         <v>43600</v>
@@ -14748,18 +14748,18 @@
         <v>43600</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A115" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -14771,18 +14771,18 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P115" s="4"/>
       <c r="Q115" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R115" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S115" s="5">
         <v>43600</v>
@@ -14791,26 +14791,26 @@
         <v>43600</v>
       </c>
       <c r="U115" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A116" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>616</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -14818,18 +14818,18 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P116" s="4"/>
       <c r="Q116" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R116" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S116" s="5">
         <v>43600</v>
@@ -14838,18 +14838,18 @@
         <v>43600</v>
       </c>
       <c r="U116" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A117" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -14861,7 +14861,7 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4" t="s">
@@ -14869,10 +14869,10 @@
       </c>
       <c r="P117" s="4"/>
       <c r="Q117" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="R117" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="R117" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="S117" s="5">
         <v>43630</v>
@@ -14883,13 +14883,13 @@
     </row>
     <row r="118" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A118" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -14905,10 +14905,10 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R118" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S118" s="5">
         <v>43630</v>
@@ -14917,18 +14917,18 @@
         <v>43630</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A119" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -14944,10 +14944,10 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R119" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S119" s="5">
         <v>43630</v>
@@ -14956,47 +14956,47 @@
         <v>43630</v>
       </c>
       <c r="U119" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A120" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I120" s="10"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P120" s="4"/>
       <c r="Q120" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S120" s="5">
         <v>43692</v>
@@ -15005,47 +15005,47 @@
         <v>43692</v>
       </c>
       <c r="U120" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A121" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I121" s="10"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P121" s="4"/>
       <c r="Q121" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="R121" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="R121" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="S121" s="5">
         <v>43692</v>
@@ -15054,18 +15054,18 @@
         <v>43692</v>
       </c>
       <c r="U121" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A122" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -15077,18 +15077,18 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N122" s="4"/>
       <c r="O122" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P122" s="4"/>
       <c r="Q122" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S122" s="5">
         <v>43692</v>
@@ -15099,13 +15099,13 @@
     </row>
     <row r="123" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A123" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>628</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>629</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -15117,18 +15117,18 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N123" s="4"/>
       <c r="O123" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P123" s="4"/>
       <c r="Q123" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R123" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S123" s="5">
         <v>43692</v>
@@ -15139,13 +15139,13 @@
     </row>
     <row r="124" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A124" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -15161,10 +15161,10 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R124" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S124" s="5">
         <v>43692</v>
@@ -15175,42 +15175,42 @@
     </row>
     <row r="125" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A125" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N125" s="4"/>
       <c r="O125" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P125" s="4"/>
       <c r="Q125" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R125" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S125" s="5">
         <v>43721</v>
@@ -15219,45 +15219,45 @@
         <v>43721</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A126" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I126" s="10"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P126" s="4"/>
       <c r="Q126" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R126" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S126" s="5">
         <v>43721</v>
@@ -15266,18 +15266,18 @@
         <v>43721</v>
       </c>
       <c r="U126" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A127" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -15289,18 +15289,18 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N127" s="4"/>
       <c r="O127" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P127" s="4"/>
       <c r="Q127" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="R127" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="R127" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="S127" s="5">
         <v>43721</v>
@@ -15309,26 +15309,26 @@
         <v>43721</v>
       </c>
       <c r="U127" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A128" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="C128" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
@@ -15336,18 +15336,18 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N128" s="4"/>
       <c r="O128" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P128" s="4"/>
       <c r="Q128" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R128" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S128" s="5">
         <v>43753</v>
@@ -15358,13 +15358,13 @@
     </row>
     <row r="129" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A129" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -15380,10 +15380,10 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R129" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S129" s="5">
         <v>43812</v>
@@ -15394,13 +15394,13 @@
     </row>
     <row r="130" spans="1:21" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A130" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -15416,10 +15416,10 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R130" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S130" s="5">
         <v>43812</v>
@@ -15430,13 +15430,13 @@
     </row>
     <row r="131" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A131" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -15448,18 +15448,18 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P131" s="4"/>
       <c r="Q131" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R131" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S131" s="5">
         <v>43812</v>
@@ -15470,13 +15470,13 @@
     </row>
     <row r="132" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A132" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="C132" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -15492,10 +15492,10 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R132" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S132" s="5">
         <v>43903</v>
@@ -15506,13 +15506,13 @@
     </row>
     <row r="133" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A133" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -15524,18 +15524,18 @@
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N133" s="4"/>
       <c r="O133" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P133" s="4"/>
       <c r="Q133" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="R133" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="R133" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="S133" s="5">
         <v>43936</v>
@@ -15546,13 +15546,13 @@
     </row>
     <row r="134" spans="1:21" ht="75" x14ac:dyDescent="0.4">
       <c r="A134" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B134" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
@@ -15568,10 +15568,10 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R134" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S134" s="5">
         <v>43936</v>
@@ -15580,18 +15580,18 @@
         <v>43936</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A135" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B135" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>645</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>646</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -15603,18 +15603,18 @@
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N135" s="4"/>
       <c r="O135" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P135" s="4"/>
       <c r="Q135" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R135" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S135" s="5">
         <v>43969</v>
@@ -15623,18 +15623,18 @@
         <v>43969</v>
       </c>
       <c r="U135" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A136" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>648</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -15650,10 +15650,10 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R136" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S136" s="5">
         <v>44119</v>
@@ -15664,13 +15664,13 @@
     </row>
     <row r="137" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A137" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="C137" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -15686,10 +15686,10 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R137" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S137" s="5">
         <v>44173</v>
@@ -15700,19 +15700,19 @@
     </row>
     <row r="138" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A138" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="C138" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="F138" s="4"/>
       <c r="I138" s="4"/>
@@ -15720,20 +15720,20 @@
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P138" s="4"/>
       <c r="Q138" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="R138" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="R138" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="S138" s="5">
         <v>39153</v>
@@ -15744,50 +15744,50 @@
     </row>
     <row r="139" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A139" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="C139" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G139" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="H139" s="4" t="s">
         <v>654</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="N139" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K139" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="L139" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="M139" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="N139" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="O139" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P139" s="4"/>
       <c r="Q139" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="R139" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="R139" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="S139" s="5">
         <v>42307</v>
@@ -15796,18 +15796,18 @@
         <v>42307</v>
       </c>
       <c r="U139" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A140" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -15819,20 +15819,20 @@
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P140" s="4"/>
       <c r="Q140" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="R140" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="R140" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="S140" s="5">
         <v>42415</v>
@@ -15843,44 +15843,44 @@
     </row>
     <row r="141" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A141" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G141" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H141" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P141" s="4"/>
       <c r="Q141" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="R141" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="R141" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="S141" s="5">
         <v>42415</v>
@@ -15891,19 +15891,19 @@
     </row>
     <row r="142" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A142" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="D142" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="E142" s="4" t="s">
         <v>665</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>666</v>
       </c>
       <c r="F142" s="4"/>
       <c r="I142" s="4"/>
@@ -15911,20 +15911,20 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P142" s="4"/>
       <c r="Q142" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="R142" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="R142" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="S142" s="5">
         <v>42475</v>
@@ -15935,21 +15935,21 @@
     </row>
     <row r="143" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A143" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>667</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>668</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
@@ -15957,20 +15957,20 @@
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O143" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P143" s="4"/>
       <c r="Q143" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="R143" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="R143" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="S143" s="5">
         <v>42475</v>
@@ -15981,40 +15981,40 @@
     </row>
     <row r="144" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A144" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C144" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>673</v>
       </c>
       <c r="F144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P144" s="4"/>
       <c r="Q144" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S144" s="5">
         <v>42475</v>
@@ -16025,13 +16025,13 @@
     </row>
     <row r="145" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A145" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -16043,16 +16043,16 @@
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="R145" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="R145" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="S145" s="5">
         <v>42809</v>
@@ -16063,19 +16063,19 @@
     </row>
     <row r="146" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A146" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>678</v>
       </c>
       <c r="F146" s="4"/>
       <c r="I146" s="4"/>
@@ -16083,18 +16083,18 @@
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N146" s="4"/>
       <c r="O146" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P146" s="4"/>
       <c r="Q146" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S146" s="5">
         <v>42809</v>
@@ -16105,44 +16105,44 @@
     </row>
     <row r="147" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A147" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="C147" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="H147" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P147" s="4"/>
       <c r="Q147" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="R147" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="R147" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="S147" s="5">
         <v>43235</v>
@@ -16153,21 +16153,21 @@
     </row>
     <row r="148" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A148" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="C148" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -16175,20 +16175,20 @@
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P148" s="4"/>
       <c r="Q148" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R148" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="R148" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="S148" s="5">
         <v>43327</v>
@@ -16199,44 +16199,44 @@
     </row>
     <row r="149" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A149" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>684</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G149" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H149" s="4" t="s">
         <v>685</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>686</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P149" s="4"/>
       <c r="Q149" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="R149" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="R149" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="S149" s="5">
         <v>43438</v>
@@ -16247,13 +16247,13 @@
     </row>
     <row r="150" spans="1:21" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A150" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
@@ -16265,16 +16265,16 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R150" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S150" s="5">
         <v>43438</v>
@@ -16283,26 +16283,26 @@
         <v>43438</v>
       </c>
       <c r="U150" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A151" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="C151" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -16310,20 +16310,20 @@
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O151" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="N151" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="O151" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="P151" s="4"/>
       <c r="Q151" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R151" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S151" s="5">
         <v>43511</v>
@@ -16334,13 +16334,13 @@
     </row>
     <row r="152" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A152" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="C152" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -16352,20 +16352,20 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="O152" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="O152" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="P152" s="4"/>
       <c r="Q152" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R152" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S152" s="5">
         <v>43570</v>
@@ -16376,13 +16376,13 @@
     </row>
     <row r="153" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A153" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="C153" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -16394,20 +16394,20 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N153" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P153" s="4"/>
       <c r="Q153" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="R153" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="R153" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="S153" s="5">
         <v>43812</v>
@@ -16418,21 +16418,21 @@
     </row>
     <row r="154" spans="1:21" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A154" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>695</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
@@ -16440,20 +16440,20 @@
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O154" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="N154" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O154" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="P154" s="4"/>
       <c r="Q154" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="R154" s="4" t="s">
         <v>395</v>
-      </c>
-      <c r="R154" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="S154" s="5">
         <v>43903</v>
@@ -16504,43 +16504,43 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>39</v>
@@ -16564,67 +16564,67 @@
         <v>44</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>777</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>785</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U2" s="5">
         <v>43570</v>
@@ -16669,34 +16669,34 @@
         <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>39</v>
@@ -16720,41 +16720,41 @@
         <v>44</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>791</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
